--- a/Hardware/Satelite/PCB_D/BOM_D.xlsx
+++ b/Hardware/Satelite/PCB_D/BOM_D.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\CanSat\Hardware\Satelite\PCB_D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys32\home\tmax4\esp\Hardware\Satelite\PCB_D\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{281C92DC-FF19-4719-AB1D-43157FBF1EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9463"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="PCB_D_" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_D" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>References</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Reference(s)</t>
   </si>
   <si>
     <t>Value</t>
@@ -39,25 +34,13 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Quantity Per PCB</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
-    <t>Unpolarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Small</t>
-  </si>
-  <si>
-    <t>C1 C3 C4</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
-    <t>C_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+    <t>Capacitor_SMD:C_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
   </si>
   <si>
     <t>EMK107B7104KAHT</t>
@@ -78,112 +61,106 @@
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
   </si>
   <si>
     <t>GRM21BR71A475KE51K</t>
   </si>
   <si>
-    <t>100V 0.15A standard switching diode, MiniMELF</t>
-  </si>
-  <si>
-    <t>LL4148</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>150060VS75000</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>D_MiniMELF</t>
-  </si>
-  <si>
-    <t>LL4148-GS08</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Rojo</t>
-  </si>
-  <si>
-    <t>LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>150060RS75000</t>
-  </si>
-  <si>
-    <t>D1 D2</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>150060VS75000</t>
+    <t>RS1A-E3/5AT</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMA</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_MiniMELF</t>
+  </si>
+  <si>
+    <t>LS4148-GS08</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>Conector_Expansion_CanSat</t>
   </si>
   <si>
-    <t>J2</t>
+    <t>AXTEC:Conector_Expansion_CanSat</t>
   </si>
   <si>
     <t>SSQ-106-03-T-S</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x03</t>
-  </si>
-  <si>
-    <t>J1 J5</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+    <t>J3</t>
   </si>
   <si>
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Vertical</t>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x03_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>TSM-103-03-T-DV</t>
   </si>
   <si>
-    <t>USB Micro Type B connector</t>
+    <t>J4</t>
   </si>
   <si>
     <t>USB_B_Micro</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Molex-105017-0001</t>
-  </si>
-  <si>
-    <t>105017-0001</t>
+    <t>Connector_USB:USB_Micro-B_Molex_47346-0001</t>
+  </si>
+  <si>
+    <t>47346-1001</t>
+  </si>
+  <si>
+    <t>JP1</t>
   </si>
   <si>
     <t>BOM_Jumper</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>Empty_Footprint</t>
+    <t>AXTEC:Empty_Footprint</t>
   </si>
   <si>
     <t>M7581-05</t>
@@ -192,136 +169,133 @@
     <t>Spacer</t>
   </si>
   <si>
-    <t>M1 M2 M3</t>
-  </si>
-  <si>
-    <t>R30-3011002</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>R30-3011202</t>
+  </si>
+  <si>
+    <t>MH1</t>
+  </si>
+  <si>
+    <t>MH_CanSat</t>
+  </si>
+  <si>
+    <t>AXTEC:MH_CanSat</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>BC817</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>BC817-16LT1G</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
   </si>
   <si>
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
-    <t>R4 R5 R6</t>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
   </si>
   <si>
     <t>RC0603JR-13220RL</t>
   </si>
   <si>
-    <t>Push button switch, generic, two pins</t>
-  </si>
-  <si>
-    <t>SW_Push</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>Reset Switch</t>
   </si>
   <si>
-    <t>SW_PUSH_6mm</t>
+    <t>Button_Switch_THT:SW_PUSH_6mm</t>
   </si>
   <si>
     <t>FSM18JH</t>
   </si>
   <si>
-    <t>20MHz, 32kB Flash, 2kB SRAM, 1kB EEPROM, TQFP-32</t>
+    <t>U1</t>
   </si>
   <si>
     <t>ATmega328P-AU</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>TQFP-32_7x7mm_P0.8mm</t>
+    <t>Package_QFP:TQFP-32_7x7mm_P0.8mm</t>
   </si>
   <si>
     <t>ATMEGA328P-AU</t>
   </si>
   <si>
-    <t>Resonators 16.0000MHz 15pF SMD CHP Resntr</t>
+    <t>U2</t>
   </si>
   <si>
     <t>CSTNE16M0V530000R0</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Full Speed USB to Full Handshake UART, SSOP-20</t>
+    <t>SamacSys_Parts:CSTNE16M0V530000R0</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
   <si>
     <t>FT231XS</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SSOP-20_3.9x8.7mm_P0.635mm</t>
+    <t>Package_SO:SSOP-20_3.9x8.7mm_P0.635mm</t>
   </si>
   <si>
     <t>FT231XS-U</t>
   </si>
   <si>
-    <t>Dual-Channel High-Speed ESD Protection</t>
+    <t>U4</t>
   </si>
   <si>
     <t>TPD2E2U06</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOT-553</t>
+    <t>Package_TO_SOT_SMD:SOT-553</t>
   </si>
   <si>
     <t>TPD2E2U06DRLR</t>
   </si>
   <si>
-    <t>1000V 1A General Purpose Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N4007</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>S1K-13-F</t>
-  </si>
-  <si>
-    <t>D5 D6</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>RC0603JR-07100KL</t>
-  </si>
-  <si>
-    <t>R2 R3</t>
+    <t>C1, C3, C4</t>
+  </si>
+  <si>
+    <t>D5, D6, D7</t>
+  </si>
+  <si>
+    <t>J1, J5</t>
+  </si>
+  <si>
+    <t>M1, M2, M3</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,31 +751,33 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -864,19 +840,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H22" totalsRowShown="0">
-  <autoFilter ref="A1:H22"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Component"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Part"/>
-    <tableColumn id="4" name="References"/>
-    <tableColumn id="5" name="Value"/>
-    <tableColumn id="6" name="Footprint"/>
-    <tableColumn id="7" name="Quantity Per PCB"/>
-    <tableColumn id="8" name="Manufacturer Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E25" totalsRowShown="0">
+  <autoFilter ref="A1:E25"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Reference(s)"/>
+    <tableColumn id="3" name="Value"/>
+    <tableColumn id="4" name="Footprint"/>
+    <tableColumn id="5" name="Manufacturer Part Number"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -897,7 +870,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -909,7 +882,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -956,6 +929,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -991,6 +981,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1143,23 +1150,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" customWidth="1"/>
-    <col min="4" max="4" width="11.765625" customWidth="1"/>
-    <col min="6" max="6" width="46.15234375" customWidth="1"/>
-    <col min="7" max="7" width="18.84375" customWidth="1"/>
-    <col min="8" max="8" width="29.3046875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,45 +1181,27 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1222,514 +1210,387 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E10" s="1">
+        <v>61300311121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>61300311121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2">
+        <v>220</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="E17">
-        <v>220</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E24" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E25" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Hardware/Satelite/PCB_D/BOM_D.xlsx
+++ b/Hardware/Satelite/PCB_D/BOM_D.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys32\home\tmax4\esp\Hardware\Satelite\PCB_D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{281C92DC-FF19-4719-AB1D-43157FBF1EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D1EBF-5BDF-4581-8C19-61AD217BBA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_D" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>Qty</t>
   </si>
@@ -94,9 +94,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>RS1A-E3/5AT</t>
   </si>
   <si>
@@ -287,16 +284,49 @@
   </si>
   <si>
     <t>R5, R6</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>1uH</t>
+  </si>
+  <si>
+    <t>LQM21PN1R0MC0D</t>
+  </si>
+  <si>
+    <t>D4, D8</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C2012X7R1A106M125AC</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>ADP2108AUJ-3.3</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:TSOT-23-5</t>
+  </si>
+  <si>
+    <t>ADP2108AUJZ-3.3-R7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +457,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -773,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -781,6 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -840,14 +879,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E25" totalsRowShown="0">
-  <autoFilter ref="A1:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:E28" totalsRowShown="0">
+  <autoFilter ref="A1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Qty"/>
-    <tableColumn id="2" name="Reference(s)"/>
-    <tableColumn id="3" name="Value"/>
-    <tableColumn id="4" name="Footprint"/>
-    <tableColumn id="5" name="Manufacturer Part Number"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Reference(s)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Value"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Footprint"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Manufacturer Part Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1149,12 +1188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1235,19 +1274,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,16 +1294,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,16 +1311,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,84 +1328,84 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1">
-        <v>61300311121</v>
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>61300311121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,16 +1413,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,33 +1430,33 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,64 +1464,64 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
+      <c r="A17" s="3">
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,50 +1529,50 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2">
-        <v>220</v>
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
       </c>
       <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
         <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
+        <v>87</v>
+      </c>
+      <c r="C22" s="2">
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,16 +1580,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,22 +1614,74 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E27" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
-        <v>81</v>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>